--- a/Team-Data/2012-13/12-27-2012-13.xlsx
+++ b/Team-Data/2012-13/12-27-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -759,13 +826,13 @@
         <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>6</v>
@@ -774,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -807,7 +874,7 @@
         <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -848,70 +915,70 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.519</v>
       </c>
       <c r="H3" t="n">
         <v>49.1</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9</v>
+        <v>37.2</v>
       </c>
       <c r="J3" t="n">
-        <v>79.09999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.466</v>
+        <v>0.469</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M3" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O3" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P3" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.794</v>
+        <v>0.792</v>
       </c>
       <c r="R3" t="n">
         <v>7.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T3" t="n">
         <v>38.6</v>
       </c>
       <c r="U3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V3" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
         <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
         <v>21</v>
@@ -920,34 +987,34 @@
         <v>19.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.3</v>
+        <v>97</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL3" t="n">
         <v>28</v>
@@ -959,10 +1026,10 @@
         <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>5</v>
@@ -980,28 +1047,28 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
         <v>27</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ3" t="n">
         <v>24</v>
       </c>
       <c r="BA3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB3" t="n">
         <v>15</v>
       </c>
       <c r="BC3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>0.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
         <v>11</v>
@@ -1141,7 +1208,7 @@
         <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>10</v>
@@ -1171,7 +1238,7 @@
         <v>20</v>
       </c>
       <c r="AY4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ4" t="n">
         <v>4</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>27</v>
@@ -1317,7 +1384,7 @@
         <v>22</v>
       </c>
       <c r="AM5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="n">
         <v>22</v>
@@ -1359,7 +1426,7 @@
         <v>8</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB5" t="n">
         <v>16</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>0.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1520,7 +1587,7 @@
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -1758,61 +1825,61 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
         <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>0.414</v>
+        <v>0.429</v>
       </c>
       <c r="H8" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="I8" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J8" t="n">
-        <v>82.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L8" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M8" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.367</v>
+        <v>0.363</v>
       </c>
       <c r="O8" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P8" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.786</v>
+        <v>0.783</v>
       </c>
       <c r="R8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T8" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U8" t="n">
         <v>21.9</v>
       </c>
       <c r="V8" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
@@ -1821,43 +1888,43 @@
         <v>5.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="AC8" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL8" t="n">
         <v>13</v>
@@ -1866,13 +1933,13 @@
         <v>15</v>
       </c>
       <c r="AN8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO8" t="n">
         <v>9</v>
       </c>
-      <c r="AO8" t="n">
-        <v>12</v>
-      </c>
       <c r="AP8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ8" t="n">
         <v>9</v>
@@ -1899,19 +1966,19 @@
         <v>15</v>
       </c>
       <c r="AY8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB8" t="n">
         <v>10</v>
       </c>
       <c r="BC8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2091,7 @@
         <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
@@ -2039,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="AK9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL9" t="n">
         <v>24</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -2233,13 +2300,13 @@
         <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>7</v>
       </c>
       <c r="AQ10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -2415,10 +2482,10 @@
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>9</v>
@@ -2585,7 +2652,7 @@
         <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>1.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.793</v>
+        <v>0.786</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,43 +2935,43 @@
         <v>38.8</v>
       </c>
       <c r="J14" t="n">
-        <v>81</v>
+        <v>80.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="L14" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>20.1</v>
+        <v>19.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O14" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P14" t="n">
         <v>23.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.716</v>
+        <v>0.724</v>
       </c>
       <c r="R14" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T14" t="n">
         <v>41.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="W14" t="n">
         <v>10.8</v>
@@ -2916,19 +2983,19 @@
         <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>3</v>
@@ -2958,16 +3025,16 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>18</v>
@@ -2982,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2991,13 +3058,13 @@
         <v>6</v>
       </c>
       <c r="AY14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ14" t="n">
         <v>21</v>
       </c>
       <c r="BA14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -3122,7 +3189,7 @@
         <v>19</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
         <v>16</v>
@@ -3155,7 +3222,7 @@
         <v>6</v>
       </c>
       <c r="AS15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3371,7 @@
         <v>6</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
         <v>18</v>
@@ -3322,10 +3389,10 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
         <v>18</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
         <v>20</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>12</v>
@@ -3668,7 +3735,7 @@
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>15</v>
@@ -3725,13 +3792,13 @@
         <v>13</v>
       </c>
       <c r="BA18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB18" t="n">
         <v>19</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3914,7 @@
         <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
         <v>24</v>
@@ -3892,7 +3959,7 @@
         <v>15</v>
       </c>
       <c r="AV19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
         <v>11</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>29</v>
@@ -4047,7 +4114,7 @@
         <v>15</v>
       </c>
       <c r="AM20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN20" t="n">
         <v>7</v>
@@ -4074,7 +4141,7 @@
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4272,7 @@
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF21" t="n">
         <v>4</v>
@@ -4214,7 +4281,7 @@
         <v>5</v>
       </c>
       <c r="AH21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -4306,34 +4373,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" t="n">
         <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>0.786</v>
+        <v>0.778</v>
       </c>
       <c r="H22" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J22" t="n">
-        <v>77.8</v>
+        <v>77.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.477</v>
+        <v>0.479</v>
       </c>
       <c r="L22" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="N22" t="n">
         <v>0.399</v>
@@ -4342,52 +4409,52 @@
         <v>23.4</v>
       </c>
       <c r="P22" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.844</v>
+        <v>0.845</v>
       </c>
       <c r="R22" t="n">
-        <v>10.4</v>
+        <v>10.1</v>
       </c>
       <c r="S22" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="T22" t="n">
-        <v>43.1</v>
+        <v>42.6</v>
       </c>
       <c r="U22" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V22" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W22" t="n">
         <v>7.7</v>
       </c>
       <c r="X22" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y22" t="n">
         <v>3.9</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>105</v>
+        <v>104.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
@@ -4396,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
         <v>30</v>
@@ -4411,7 +4478,7 @@
         <v>12</v>
       </c>
       <c r="AM22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN22" t="n">
         <v>2</v>
@@ -4426,19 +4493,19 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU22" t="n">
         <v>14</v>
       </c>
       <c r="AV22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW22" t="n">
         <v>18</v>
@@ -4456,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
@@ -4608,7 +4675,7 @@
         <v>7</v>
       </c>
       <c r="AR23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4878,7 @@
         <v>14</v>
       </c>
       <c r="AY24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ24" t="n">
         <v>9</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -4942,7 +5009,7 @@
         <v>23</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI25" t="n">
         <v>6</v>
@@ -5005,7 +5072,7 @@
         <v>13</v>
       </c>
       <c r="BC25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -5124,7 +5191,7 @@
         <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5546,7 @@
         <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF28" t="n">
         <v>4</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5533,7 +5600,7 @@
         <v>19</v>
       </c>
       <c r="AW28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX28" t="n">
         <v>16</v>
@@ -5548,7 +5615,7 @@
         <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -5691,10 +5758,10 @@
         <v>25</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ29" t="n">
         <v>10</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -5849,16 +5916,16 @@
         <v>18</v>
       </c>
       <c r="AG30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH30" t="n">
         <v>15</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>16</v>
       </c>
       <c r="AI30" t="n">
         <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
@@ -5915,7 +5982,7 @@
         <v>11</v>
       </c>
       <c r="BC30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
@@ -6034,7 +6101,7 @@
         <v>30</v>
       </c>
       <c r="AH31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-27-2012-13</t>
+          <t>2012-12-27</t>
         </is>
       </c>
     </row>
